--- a/data/pca/factorExposure/factorExposure_2019-01-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-01-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.1084397914608072</v>
+        <v>0.06835241860061726</v>
       </c>
       <c r="C2">
-        <v>0.002142843024088791</v>
+        <v>0.03512434246445729</v>
       </c>
       <c r="D2">
-        <v>0.07207538662138907</v>
+        <v>0.01689446009410614</v>
       </c>
       <c r="E2">
-        <v>0.02005805465898391</v>
+        <v>0.04028564930224621</v>
       </c>
       <c r="F2">
-        <v>0.1316710910299048</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.1340689263201341</v>
+      </c>
+      <c r="G2">
+        <v>-0.06807451124825609</v>
+      </c>
+      <c r="H2">
+        <v>0.0516510276056302</v>
+      </c>
+      <c r="I2">
+        <v>-0.1068326449530937</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.2161258071822111</v>
+        <v>0.159837273173507</v>
       </c>
       <c r="C3">
-        <v>0.150880820375203</v>
+        <v>0.1068633555526105</v>
       </c>
       <c r="D3">
-        <v>0.03939485185223147</v>
+        <v>-0.00855019626817434</v>
       </c>
       <c r="E3">
-        <v>0.006034698569525778</v>
+        <v>-0.005934757378276688</v>
       </c>
       <c r="F3">
-        <v>0.3403005776181742</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.3787607466573301</v>
+      </c>
+      <c r="G3">
+        <v>-0.2838824765126471</v>
+      </c>
+      <c r="H3">
+        <v>0.05195637296079027</v>
+      </c>
+      <c r="I3">
+        <v>-0.3638823080831236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.09615473663578986</v>
+        <v>0.07206643508186268</v>
       </c>
       <c r="C4">
-        <v>0.0387236735765398</v>
+        <v>0.04887018067399583</v>
       </c>
       <c r="D4">
-        <v>0.04519683140828562</v>
+        <v>-0.01717516994167894</v>
       </c>
       <c r="E4">
-        <v>-0.02514681016409727</v>
+        <v>0.03927373187669553</v>
       </c>
       <c r="F4">
-        <v>0.07238980097018571</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.07882351486770438</v>
+      </c>
+      <c r="G4">
+        <v>-0.03182463357896394</v>
+      </c>
+      <c r="H4">
+        <v>0.04822994517486327</v>
+      </c>
+      <c r="I4">
+        <v>-0.05437743797861171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.02115347287552107</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.009915121885095354</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.005115092427592019</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.005452871665556974</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.008544218775922955</v>
+      </c>
+      <c r="G6">
+        <v>0.01488212435168646</v>
+      </c>
+      <c r="H6">
+        <v>-0.01807645001680175</v>
+      </c>
+      <c r="I6">
+        <v>0.004700568676586702</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.04691308962057759</v>
+        <v>0.03474185600186011</v>
       </c>
       <c r="C7">
-        <v>0.01560051974557815</v>
+        <v>0.01894046521412215</v>
       </c>
       <c r="D7">
-        <v>0.04142538190187755</v>
+        <v>-0.03694367845804076</v>
       </c>
       <c r="E7">
-        <v>0.0062417843247932</v>
+        <v>0.02775914106071722</v>
       </c>
       <c r="F7">
-        <v>0.0592175552371858</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.04898852962595488</v>
+      </c>
+      <c r="G7">
+        <v>-0.05196249261403611</v>
+      </c>
+      <c r="H7">
+        <v>-0.005261446802215085</v>
+      </c>
+      <c r="I7">
+        <v>-0.03526188137769889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.05393258759875392</v>
+        <v>0.02831494058726232</v>
       </c>
       <c r="C8">
-        <v>0.05641607676566023</v>
+        <v>0.05309130669599348</v>
       </c>
       <c r="D8">
-        <v>0.02511818076502478</v>
+        <v>-0.01419907801706893</v>
       </c>
       <c r="E8">
-        <v>-0.02331439974572545</v>
+        <v>0.0198890409240659</v>
       </c>
       <c r="F8">
-        <v>0.06886545994773963</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.07062543408570632</v>
+      </c>
+      <c r="G8">
+        <v>-0.04997895012546794</v>
+      </c>
+      <c r="H8">
+        <v>0.03595956074036678</v>
+      </c>
+      <c r="I8">
+        <v>-0.0647914290692945</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.08170041099752899</v>
+        <v>0.06199774045325433</v>
       </c>
       <c r="C9">
-        <v>0.02951630506237474</v>
+        <v>0.04418543250026514</v>
       </c>
       <c r="D9">
-        <v>0.05074337356248963</v>
+        <v>-0.02061903398275759</v>
       </c>
       <c r="E9">
-        <v>-0.0414057451210868</v>
+        <v>0.03593069336802151</v>
       </c>
       <c r="F9">
-        <v>0.05947165085464579</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.07866820861855052</v>
+      </c>
+      <c r="G9">
+        <v>-0.02752587391020908</v>
+      </c>
+      <c r="H9">
+        <v>0.0434385004925916</v>
+      </c>
+      <c r="I9">
+        <v>-0.02962615726305446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.02291460009305568</v>
+        <v>0.03391927720250237</v>
       </c>
       <c r="C10">
-        <v>-0.158062857557812</v>
+        <v>-0.1616077800815249</v>
       </c>
       <c r="D10">
-        <v>-0.05539401810345833</v>
+        <v>0.01436189981337773</v>
       </c>
       <c r="E10">
-        <v>0.04086412422881168</v>
+        <v>-0.03578790161024305</v>
       </c>
       <c r="F10">
-        <v>0.06803004308413116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.06695287640853645</v>
+      </c>
+      <c r="G10">
+        <v>-0.029699573552931</v>
+      </c>
+      <c r="H10">
+        <v>0.04061730579363321</v>
+      </c>
+      <c r="I10">
+        <v>-0.05244820471718775</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.05937168988571263</v>
+        <v>0.04965632734208914</v>
       </c>
       <c r="C11">
-        <v>0.01648518346976678</v>
+        <v>0.03292894645444614</v>
       </c>
       <c r="D11">
-        <v>0.008380106247001442</v>
+        <v>0.004631053533066277</v>
       </c>
       <c r="E11">
-        <v>0.01005609661790358</v>
+        <v>0.009233491486447859</v>
       </c>
       <c r="F11">
-        <v>0.04327410164089725</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.03796008391815073</v>
+      </c>
+      <c r="G11">
+        <v>-0.002294492201388088</v>
+      </c>
+      <c r="H11">
+        <v>0.01564571870697899</v>
+      </c>
+      <c r="I11">
+        <v>-0.02703474433203505</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.04840896705359487</v>
+        <v>0.04439274842826505</v>
       </c>
       <c r="C12">
-        <v>0.02129063889015225</v>
+        <v>0.02960622320325668</v>
       </c>
       <c r="D12">
-        <v>0.006612206790883144</v>
+        <v>-0.006455714494415721</v>
       </c>
       <c r="E12">
-        <v>-0.008363200498644925</v>
+        <v>0.009936455360128982</v>
       </c>
       <c r="F12">
-        <v>0.0299345863257308</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01437749415892842</v>
+      </c>
+      <c r="G12">
+        <v>-0.004238850279852692</v>
+      </c>
+      <c r="H12">
+        <v>0.004128266504288532</v>
+      </c>
+      <c r="I12">
+        <v>-0.0153786369534266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.06182886001794324</v>
+        <v>0.04374391052374187</v>
       </c>
       <c r="C13">
-        <v>0.02846702979943752</v>
+        <v>0.02928483977332205</v>
       </c>
       <c r="D13">
-        <v>0.02688825599037635</v>
+        <v>0.01395631165093236</v>
       </c>
       <c r="E13">
-        <v>0.03136964457794549</v>
+        <v>0.01131232461303555</v>
       </c>
       <c r="F13">
-        <v>0.1078756836313718</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.1025473591736699</v>
+      </c>
+      <c r="G13">
+        <v>-0.03743638362351028</v>
+      </c>
+      <c r="H13">
+        <v>0.0265390764290971</v>
+      </c>
+      <c r="I13">
+        <v>-0.0615459673239616</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.03655649428008694</v>
+        <v>0.02680905815299471</v>
       </c>
       <c r="C14">
-        <v>0.02143561744261613</v>
+        <v>0.02293930514667862</v>
       </c>
       <c r="D14">
-        <v>0.03632054510832663</v>
+        <v>-0.006952890554179871</v>
       </c>
       <c r="E14">
-        <v>-0.003438931485137372</v>
+        <v>0.02828161520974438</v>
       </c>
       <c r="F14">
-        <v>0.02167327414190018</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03504436821776531</v>
+      </c>
+      <c r="G14">
+        <v>-0.05609567742761686</v>
+      </c>
+      <c r="H14">
+        <v>0.01093186398924741</v>
+      </c>
+      <c r="I14">
+        <v>-0.01754594150676386</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.05160724353590072</v>
+        <v>0.04297791730230902</v>
       </c>
       <c r="C16">
-        <v>0.02418119541396429</v>
+        <v>0.03530523353367231</v>
       </c>
       <c r="D16">
-        <v>0.005412246748525229</v>
+        <v>-0.0008635447189932375</v>
       </c>
       <c r="E16">
-        <v>0.003959953132647165</v>
+        <v>0.007054699718621148</v>
       </c>
       <c r="F16">
-        <v>0.03432070557916222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.034021105316134</v>
+      </c>
+      <c r="G16">
+        <v>-0.005925611765956495</v>
+      </c>
+      <c r="H16">
+        <v>0.004834619196502883</v>
+      </c>
+      <c r="I16">
+        <v>-0.02790504094960045</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.06918182467179876</v>
+        <v>0.05385668267870077</v>
       </c>
       <c r="C19">
-        <v>0.04643007792335181</v>
+        <v>0.04636859371588984</v>
       </c>
       <c r="D19">
-        <v>0.02020503986981329</v>
+        <v>0.001023676820122477</v>
       </c>
       <c r="E19">
-        <v>0.004501547530686241</v>
+        <v>0.0217529195260692</v>
       </c>
       <c r="F19">
-        <v>0.07821078659745993</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.08952266587829126</v>
+      </c>
+      <c r="G19">
+        <v>-0.05940639255445139</v>
+      </c>
+      <c r="H19">
+        <v>0.0146644008607428</v>
+      </c>
+      <c r="I19">
+        <v>-0.06665788635479056</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.033761692905693</v>
+        <v>0.01970666284158595</v>
       </c>
       <c r="C20">
-        <v>0.03256259148755199</v>
+        <v>0.03029106694876873</v>
       </c>
       <c r="D20">
-        <v>0.04027899901573775</v>
+        <v>-0.006908954816558244</v>
       </c>
       <c r="E20">
-        <v>-0.01520691083162829</v>
+        <v>0.02013556420840004</v>
       </c>
       <c r="F20">
-        <v>0.06722629304461022</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.0630737126607526</v>
+      </c>
+      <c r="G20">
+        <v>-0.05840247503492461</v>
+      </c>
+      <c r="H20">
+        <v>0.006450752598631159</v>
+      </c>
+      <c r="I20">
+        <v>-0.07628740227700734</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.03917076378712076</v>
+        <v>0.03412804859070322</v>
       </c>
       <c r="C21">
-        <v>0.03817650000578264</v>
+        <v>0.03164696199081374</v>
       </c>
       <c r="D21">
-        <v>0.01431872335274875</v>
+        <v>-0.01306975260736544</v>
       </c>
       <c r="E21">
-        <v>0.01082317986764978</v>
+        <v>0.006771844573587908</v>
       </c>
       <c r="F21">
-        <v>0.09953553982247007</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.07919813665379932</v>
+      </c>
+      <c r="G21">
+        <v>-0.02364501936797211</v>
+      </c>
+      <c r="H21">
+        <v>0.04769664059265435</v>
+      </c>
+      <c r="I21">
+        <v>-0.002103843878313237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.05132459541406071</v>
+        <v>0.04189788906439228</v>
       </c>
       <c r="C24">
-        <v>0.02263243177777734</v>
+        <v>0.03123166485900008</v>
       </c>
       <c r="D24">
-        <v>0.01258297425006818</v>
+        <v>-0.001470299929630954</v>
       </c>
       <c r="E24">
-        <v>-0.0007735536405502601</v>
+        <v>0.01069957498804435</v>
       </c>
       <c r="F24">
-        <v>0.04390505363810283</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.03745202331164014</v>
+      </c>
+      <c r="G24">
+        <v>-0.0001633302691249708</v>
+      </c>
+      <c r="H24">
+        <v>0.007965594157608445</v>
+      </c>
+      <c r="I24">
+        <v>-0.02902707293413741</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.05269831020139882</v>
+        <v>0.04838085031780385</v>
       </c>
       <c r="C25">
-        <v>0.01671176670888919</v>
+        <v>0.0273626961617743</v>
       </c>
       <c r="D25">
-        <v>0.008049895437978943</v>
+        <v>-0.0003114070463900776</v>
       </c>
       <c r="E25">
-        <v>0.001303905817978458</v>
+        <v>0.00863224792299622</v>
       </c>
       <c r="F25">
-        <v>0.04157358852624925</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.04318739635567728</v>
+      </c>
+      <c r="G25">
+        <v>-0.001447111234551088</v>
+      </c>
+      <c r="H25">
+        <v>0.01389723455488822</v>
+      </c>
+      <c r="I25">
+        <v>-0.01909925441062593</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.02731450648213893</v>
+        <v>0.0186005698594469</v>
       </c>
       <c r="C26">
-        <v>0.03072701720767658</v>
+        <v>0.02918792609452379</v>
       </c>
       <c r="D26">
-        <v>0.02240941007897522</v>
+        <v>0.003320468427742885</v>
       </c>
       <c r="E26">
-        <v>0.01971021986106081</v>
+        <v>0.002635936143229149</v>
       </c>
       <c r="F26">
-        <v>0.0311284869324935</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.0422554420756145</v>
+      </c>
+      <c r="G26">
+        <v>-0.03354022069746364</v>
+      </c>
+      <c r="H26">
+        <v>0.01126099709694259</v>
+      </c>
+      <c r="I26">
+        <v>-0.02290770713969169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.120380016773932</v>
+        <v>0.07287774528340432</v>
       </c>
       <c r="C27">
-        <v>0.02007323324781323</v>
+        <v>0.0267361256363503</v>
       </c>
       <c r="D27">
-        <v>0.03854697165224337</v>
+        <v>-0.005912263219569808</v>
       </c>
       <c r="E27">
-        <v>-0.02369328199311135</v>
+        <v>0.03373924359687266</v>
       </c>
       <c r="F27">
-        <v>0.08207020956302991</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.06503434967539254</v>
+      </c>
+      <c r="G27">
+        <v>-0.02132163452296233</v>
+      </c>
+      <c r="H27">
+        <v>0.02611646744897848</v>
+      </c>
+      <c r="I27">
+        <v>-0.03810930468402705</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.02278174423895828</v>
+        <v>0.04965963923537568</v>
       </c>
       <c r="C28">
-        <v>-0.2351475561874794</v>
+        <v>-0.2460914116509482</v>
       </c>
       <c r="D28">
-        <v>-0.09239023027795105</v>
+        <v>0.01312528251877577</v>
       </c>
       <c r="E28">
-        <v>0.03861859006292157</v>
+        <v>-0.05141559986751502</v>
       </c>
       <c r="F28">
-        <v>0.04913030274127052</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.05809092905905478</v>
+      </c>
+      <c r="G28">
+        <v>-0.03923593268514235</v>
+      </c>
+      <c r="H28">
+        <v>0.04269362513995784</v>
+      </c>
+      <c r="I28">
+        <v>-0.07555314083901157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.03163626172406758</v>
+        <v>0.02358543162173911</v>
       </c>
       <c r="C29">
-        <v>0.01948856430805665</v>
+        <v>0.01977241421552406</v>
       </c>
       <c r="D29">
-        <v>0.03399658651433055</v>
+        <v>-0.01014845296863019</v>
       </c>
       <c r="E29">
-        <v>-0.015470144509027</v>
+        <v>0.02863677074744951</v>
       </c>
       <c r="F29">
-        <v>0.02305733310547764</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03146738034381037</v>
+      </c>
+      <c r="G29">
+        <v>-0.05656691270888331</v>
+      </c>
+      <c r="H29">
+        <v>0.01507960246745141</v>
+      </c>
+      <c r="I29">
+        <v>-0.00258114277647561</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1148078453561606</v>
+        <v>0.08968325740421203</v>
       </c>
       <c r="C30">
-        <v>0.0234264479687499</v>
+        <v>0.05305468106802713</v>
       </c>
       <c r="D30">
-        <v>0.03969697956409778</v>
+        <v>0.0353954671683149</v>
       </c>
       <c r="E30">
-        <v>0.01124272562301106</v>
+        <v>0.03343140269931433</v>
       </c>
       <c r="F30">
-        <v>0.106755741077465</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.1043878126950268</v>
+      </c>
+      <c r="G30">
+        <v>-0.01633933220532778</v>
+      </c>
+      <c r="H30">
+        <v>-0.008045376637970227</v>
+      </c>
+      <c r="I30">
+        <v>-0.02459554622770241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.06935233000148207</v>
+        <v>0.06064407527771311</v>
       </c>
       <c r="C31">
-        <v>0.01616794663508007</v>
+        <v>0.02303248490404891</v>
       </c>
       <c r="D31">
-        <v>0.03055875641915319</v>
+        <v>0.008990393765849812</v>
       </c>
       <c r="E31">
-        <v>0.03101885910005232</v>
+        <v>0.02316001487659286</v>
       </c>
       <c r="F31">
-        <v>-0.03706552392860454</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.005194959294459199</v>
+      </c>
+      <c r="G31">
+        <v>-0.05001778482813105</v>
+      </c>
+      <c r="H31">
+        <v>0.02999021861117182</v>
+      </c>
+      <c r="I31">
+        <v>-0.01261998465640371</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.07168461546275165</v>
+        <v>0.04289077871086668</v>
       </c>
       <c r="C32">
-        <v>0.03898443889043365</v>
+        <v>0.04754182691356727</v>
       </c>
       <c r="D32">
-        <v>0.03663516549244757</v>
+        <v>-0.01724158504574252</v>
       </c>
       <c r="E32">
-        <v>-0.01160043557202736</v>
+        <v>0.03558127538577719</v>
       </c>
       <c r="F32">
-        <v>0.09157081578920674</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.08202854455273577</v>
+      </c>
+      <c r="G32">
+        <v>-0.04295063901894126</v>
+      </c>
+      <c r="H32">
+        <v>0.02396736579420512</v>
+      </c>
+      <c r="I32">
+        <v>-0.05204925078608225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.07169446066972732</v>
+        <v>0.05657108654043928</v>
       </c>
       <c r="C33">
-        <v>0.0577594591813731</v>
+        <v>0.0576244709830702</v>
       </c>
       <c r="D33">
-        <v>0.0368623837879913</v>
+        <v>0.01665613995181793</v>
       </c>
       <c r="E33">
-        <v>0.01627720723565611</v>
+        <v>0.01373635112174192</v>
       </c>
       <c r="F33">
-        <v>0.06575347423537711</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.07239087714442735</v>
+      </c>
+      <c r="G33">
+        <v>-0.04391482945990436</v>
+      </c>
+      <c r="H33">
+        <v>0.0354647415109996</v>
+      </c>
+      <c r="I33">
+        <v>-0.03030357568020687</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.05197933900611652</v>
+        <v>0.04388009588507933</v>
       </c>
       <c r="C34">
-        <v>0.02097862668876773</v>
+        <v>0.03492735654146104</v>
       </c>
       <c r="D34">
-        <v>0.01501767101942942</v>
+        <v>-0.006025149792303769</v>
       </c>
       <c r="E34">
-        <v>-0.0009896069272138743</v>
+        <v>0.01619412696937654</v>
       </c>
       <c r="F34">
-        <v>0.02750972856020686</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.03286175553050913</v>
+      </c>
+      <c r="G34">
+        <v>-0.007785096662257254</v>
+      </c>
+      <c r="H34">
+        <v>0.008745456320005065</v>
+      </c>
+      <c r="I34">
+        <v>-0.02381452635733724</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.0182958162573171</v>
+        <v>0.01591167667358618</v>
       </c>
       <c r="C36">
-        <v>0.002244467279427998</v>
+        <v>0.006134968236468174</v>
       </c>
       <c r="D36">
-        <v>0.01169815305746352</v>
+        <v>-0.004990059762983678</v>
       </c>
       <c r="E36">
-        <v>-0.004839841844524718</v>
+        <v>0.01016033355645099</v>
       </c>
       <c r="F36">
-        <v>0.01531889514855804</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.0238432949225401</v>
+      </c>
+      <c r="G36">
+        <v>-0.03917118879916869</v>
+      </c>
+      <c r="H36">
+        <v>0.01768990436392306</v>
+      </c>
+      <c r="I36">
+        <v>0.008174580267483553</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.04494034355967883</v>
+        <v>0.03495058562728503</v>
       </c>
       <c r="C38">
-        <v>0.01469708771743233</v>
+        <v>0.01725055004046196</v>
       </c>
       <c r="D38">
-        <v>0.0222488814323071</v>
+        <v>-0.004838568918844108</v>
       </c>
       <c r="E38">
-        <v>-0.01994606565837805</v>
+        <v>0.01218274437974193</v>
       </c>
       <c r="F38">
-        <v>0.02174260339036092</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.04732421217092403</v>
+      </c>
+      <c r="G38">
+        <v>-0.02873234210690204</v>
+      </c>
+      <c r="H38">
+        <v>0.02351607006422313</v>
+      </c>
+      <c r="I38">
+        <v>0.01014177113874404</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.07261428535047688</v>
+        <v>0.05514298591800824</v>
       </c>
       <c r="C39">
-        <v>0.02199352741712651</v>
+        <v>0.0484476698485798</v>
       </c>
       <c r="D39">
-        <v>0.02365591555965696</v>
+        <v>0.003173358603384378</v>
       </c>
       <c r="E39">
-        <v>0.01513519511167201</v>
+        <v>0.01920333067017789</v>
       </c>
       <c r="F39">
-        <v>0.0351393225262574</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.05440547669374324</v>
+      </c>
+      <c r="G39">
+        <v>0.002089912137446553</v>
+      </c>
+      <c r="H39">
+        <v>0.02283635706434517</v>
+      </c>
+      <c r="I39">
+        <v>-0.007251635983992296</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.07587232947816736</v>
+        <v>0.05579610718179362</v>
       </c>
       <c r="C40">
-        <v>0.02375272628785345</v>
+        <v>0.04361420383267278</v>
       </c>
       <c r="D40">
-        <v>0.05692996659308916</v>
+        <v>0.0192520090859732</v>
       </c>
       <c r="E40">
-        <v>0.03674166359592863</v>
+        <v>0.02490940696122813</v>
       </c>
       <c r="F40">
-        <v>0.1087968580954102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.09494009836114721</v>
+      </c>
+      <c r="G40">
+        <v>-0.03770445709305124</v>
+      </c>
+      <c r="H40">
+        <v>0.02726448074145547</v>
+      </c>
+      <c r="I40">
+        <v>-0.1064606717800745</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.003988945991531602</v>
+        <v>0.003482533561202501</v>
       </c>
       <c r="C41">
-        <v>0.02512044157400998</v>
+        <v>0.01150621599975098</v>
       </c>
       <c r="D41">
-        <v>0.03032639163976717</v>
+        <v>-0.0004465256239940428</v>
       </c>
       <c r="E41">
-        <v>-0.007791848918692715</v>
+        <v>0.01008896385718535</v>
       </c>
       <c r="F41">
-        <v>-0.005911050090851764</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.009589198410087485</v>
+      </c>
+      <c r="G41">
+        <v>-0.04823408987402102</v>
+      </c>
+      <c r="H41">
+        <v>0.03459208576550817</v>
+      </c>
+      <c r="I41">
+        <v>-0.01336453796916833</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.1860828621037196</v>
+        <v>0.2253284680191777</v>
       </c>
       <c r="C42">
-        <v>0.4384935617133413</v>
+        <v>0.2542140957631341</v>
       </c>
       <c r="D42">
-        <v>-0.8029636926751261</v>
+        <v>0.04619494139245377</v>
       </c>
       <c r="E42">
-        <v>0.2732762999415068</v>
+        <v>-0.9085126552547897</v>
       </c>
       <c r="F42">
-        <v>-0.09040679744667861</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1642179805481322</v>
+      </c>
+      <c r="G42">
+        <v>0.006088102928496068</v>
+      </c>
+      <c r="H42">
+        <v>-0.006398841242638655</v>
+      </c>
+      <c r="I42">
+        <v>-0.05560305708751572</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.007896820832977504</v>
+        <v>0.00846154961762117</v>
       </c>
       <c r="C43">
-        <v>0.02599843697752562</v>
+        <v>0.01497454444948169</v>
       </c>
       <c r="D43">
-        <v>0.02947573676495841</v>
+        <v>0.002109367724497589</v>
       </c>
       <c r="E43">
-        <v>-0.001109564509241783</v>
+        <v>0.009599495389048892</v>
       </c>
       <c r="F43">
-        <v>0.02288586415538587</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.0240432834100419</v>
+      </c>
+      <c r="G43">
+        <v>-0.03562911628768005</v>
+      </c>
+      <c r="H43">
+        <v>0.02011259904238422</v>
+      </c>
+      <c r="I43">
+        <v>-0.02382169631881682</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.04579878943781008</v>
+        <v>0.03060676452604677</v>
       </c>
       <c r="C44">
-        <v>0.0478041574432141</v>
+        <v>0.0437835334122082</v>
       </c>
       <c r="D44">
-        <v>0.04097190938883089</v>
+        <v>-0.003702164827332313</v>
       </c>
       <c r="E44">
-        <v>0.008188200243124031</v>
+        <v>0.01682253746832589</v>
       </c>
       <c r="F44">
-        <v>0.1129916710048738</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.1164892398154448</v>
+      </c>
+      <c r="G44">
+        <v>-0.09208140756495492</v>
+      </c>
+      <c r="H44">
+        <v>0.0460591771155124</v>
+      </c>
+      <c r="I44">
+        <v>-0.05543188888971785</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.03344924354254492</v>
+        <v>0.02677991121126973</v>
       </c>
       <c r="C46">
-        <v>0.02441245669165902</v>
+        <v>0.03574591070429593</v>
       </c>
       <c r="D46">
-        <v>0.03765074929427938</v>
+        <v>0.001995737162707729</v>
       </c>
       <c r="E46">
-        <v>-0.0002442995633556234</v>
+        <v>0.03150381922558242</v>
       </c>
       <c r="F46">
-        <v>0.01910511282740361</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.04342803071322078</v>
+      </c>
+      <c r="G46">
+        <v>-0.05985391813307171</v>
+      </c>
+      <c r="H46">
+        <v>0.01231572407623701</v>
+      </c>
+      <c r="I46">
+        <v>-0.008704041677520468</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.09673728748715679</v>
+        <v>0.08720407232003505</v>
       </c>
       <c r="C47">
-        <v>0.009238980589647056</v>
+        <v>0.01943647291369485</v>
       </c>
       <c r="D47">
-        <v>0.02978852260018352</v>
+        <v>0.003796224752725677</v>
       </c>
       <c r="E47">
-        <v>-0.004650524143586164</v>
+        <v>0.02885213705472797</v>
       </c>
       <c r="F47">
-        <v>-0.02979373621290075</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.01811915730392549</v>
+      </c>
+      <c r="G47">
+        <v>-0.06511535921650431</v>
+      </c>
+      <c r="H47">
+        <v>0.0227366617760111</v>
+      </c>
+      <c r="I47">
+        <v>-0.03448401883799093</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.02171500396467137</v>
+        <v>0.02079548402903266</v>
       </c>
       <c r="C48">
-        <v>0.02148226770834345</v>
+        <v>0.01794075620977855</v>
       </c>
       <c r="D48">
-        <v>0.02406424189545261</v>
+        <v>-0.001482824147474486</v>
       </c>
       <c r="E48">
-        <v>0.001444584833983107</v>
+        <v>0.01346734381818765</v>
       </c>
       <c r="F48">
-        <v>0.02104763044272553</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.02565007996543871</v>
+      </c>
+      <c r="G48">
+        <v>-0.02881827059912104</v>
+      </c>
+      <c r="H48">
+        <v>0.01599609201908813</v>
+      </c>
+      <c r="I48">
+        <v>-0.0100266199471911</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.09446816261287851</v>
+        <v>0.08887950629256922</v>
       </c>
       <c r="C50">
-        <v>0.03178375590945321</v>
+        <v>0.03889992522503172</v>
       </c>
       <c r="D50">
-        <v>0.03166944205988016</v>
+        <v>-0.01190759295819641</v>
       </c>
       <c r="E50">
-        <v>0.005931429956264635</v>
+        <v>0.02601642235952139</v>
       </c>
       <c r="F50">
-        <v>-0.03136639331925994</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.01062277118382877</v>
+      </c>
+      <c r="G50">
+        <v>-0.03775283633746861</v>
+      </c>
+      <c r="H50">
+        <v>-0.01207509987635432</v>
+      </c>
+      <c r="I50">
+        <v>0.004940259804236753</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.05849285128009948</v>
+        <v>0.03964507785908057</v>
       </c>
       <c r="C51">
-        <v>-0.01307846546980542</v>
+        <v>-0.002956359121276658</v>
       </c>
       <c r="D51">
-        <v>0.02231794573079416</v>
+        <v>0.01094095090313117</v>
       </c>
       <c r="E51">
-        <v>0.03519379057475858</v>
+        <v>0.01124500132050393</v>
       </c>
       <c r="F51">
-        <v>0.06516255371149549</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.09134549764168769</v>
+      </c>
+      <c r="G51">
+        <v>-0.07065814637426064</v>
+      </c>
+      <c r="H51">
+        <v>0.04883730152228352</v>
+      </c>
+      <c r="I51">
+        <v>-0.03078555121534459</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1365120758570419</v>
+        <v>0.1250494824818715</v>
       </c>
       <c r="C53">
-        <v>0.01265391326351489</v>
+        <v>0.03701752343704974</v>
       </c>
       <c r="D53">
-        <v>0.05714288109851338</v>
+        <v>0.003997377966739157</v>
       </c>
       <c r="E53">
-        <v>0.002175857469533338</v>
+        <v>0.05524204878094371</v>
       </c>
       <c r="F53">
-        <v>-0.06135202993637036</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.04795438488950955</v>
+      </c>
+      <c r="G53">
+        <v>-0.01354458930625754</v>
+      </c>
+      <c r="H53">
+        <v>0.03057795311928297</v>
+      </c>
+      <c r="I53">
+        <v>-0.04032779478053825</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.02986219672032629</v>
+        <v>0.02760548072599465</v>
       </c>
       <c r="C54">
-        <v>0.00543733458060152</v>
+        <v>0.007114838436985242</v>
       </c>
       <c r="D54">
-        <v>0.0341119345098278</v>
+        <v>-0.005493689362858678</v>
       </c>
       <c r="E54">
-        <v>-0.007936356184861134</v>
+        <v>0.03040000348126236</v>
       </c>
       <c r="F54">
-        <v>0.02374875346541934</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.02932375090514089</v>
+      </c>
+      <c r="G54">
+        <v>-0.054529210414475</v>
+      </c>
+      <c r="H54">
+        <v>0.0304592805763852</v>
+      </c>
+      <c r="I54">
+        <v>-0.003521997563877942</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1059576965408196</v>
+        <v>0.09757975608689631</v>
       </c>
       <c r="C55">
-        <v>-0.004129384141318125</v>
+        <v>0.03055472262276388</v>
       </c>
       <c r="D55">
-        <v>0.02972769538776593</v>
+        <v>-0.01379749682204395</v>
       </c>
       <c r="E55">
-        <v>-0.04241746404051238</v>
+        <v>0.03736794310922282</v>
       </c>
       <c r="F55">
-        <v>-0.01992162730899577</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.03618440497475079</v>
+      </c>
+      <c r="G55">
+        <v>-0.02004026959143187</v>
+      </c>
+      <c r="H55">
+        <v>-0.01133594219558172</v>
+      </c>
+      <c r="I55">
+        <v>-0.02193869531324791</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1705246306381766</v>
+        <v>0.1648789215659957</v>
       </c>
       <c r="C56">
-        <v>-0.03991614563316846</v>
+        <v>0.01780449633171257</v>
       </c>
       <c r="D56">
-        <v>0.07965604881164244</v>
+        <v>-0.0001453244975700163</v>
       </c>
       <c r="E56">
-        <v>-0.03476032951074606</v>
+        <v>0.08818080386897233</v>
       </c>
       <c r="F56">
-        <v>-0.1052462137376943</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.09385853501678829</v>
+      </c>
+      <c r="G56">
+        <v>0.03934575012951112</v>
+      </c>
+      <c r="H56">
+        <v>-0.004720570194210367</v>
+      </c>
+      <c r="I56">
+        <v>-0.04454989450130712</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.08688941005357131</v>
+        <v>0.06834259142876896</v>
       </c>
       <c r="C57">
-        <v>0.02356309816176384</v>
+        <v>0.03182388464495572</v>
       </c>
       <c r="D57">
-        <v>0.02843880060096924</v>
+        <v>0.01892463310465936</v>
       </c>
       <c r="E57">
-        <v>0.03201155627137058</v>
+        <v>0.004843617608923973</v>
       </c>
       <c r="F57">
-        <v>0.04027894059193931</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.0662268362902934</v>
+      </c>
+      <c r="G57">
+        <v>-0.02299863637387527</v>
+      </c>
+      <c r="H57">
+        <v>0.01808941397771061</v>
+      </c>
+      <c r="I57">
+        <v>-0.02578717621371525</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.1986826539698176</v>
+        <v>0.2100505894173318</v>
       </c>
       <c r="C58">
-        <v>0.04245456159942016</v>
+        <v>0.1031921993007058</v>
       </c>
       <c r="D58">
-        <v>0.04043367189310455</v>
+        <v>0.08834516764526311</v>
       </c>
       <c r="E58">
-        <v>0.0565409220260701</v>
+        <v>-0.01546772443362991</v>
       </c>
       <c r="F58">
-        <v>0.1175024922571047</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.2726809690983102</v>
+      </c>
+      <c r="G58">
+        <v>-0.3547783038663389</v>
+      </c>
+      <c r="H58">
+        <v>-0.3708748038896905</v>
+      </c>
+      <c r="I58">
+        <v>0.6868540098131174</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.02233283887657719</v>
+        <v>0.04827728276310105</v>
       </c>
       <c r="C59">
-        <v>-0.1931751904605446</v>
+        <v>-0.2002523798713752</v>
       </c>
       <c r="D59">
-        <v>-0.04726800626641611</v>
+        <v>0.02531904564714031</v>
       </c>
       <c r="E59">
-        <v>0.02559759129310604</v>
+        <v>-0.01650054218425981</v>
       </c>
       <c r="F59">
-        <v>0.05088478624419041</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.06957037910708201</v>
+      </c>
+      <c r="G59">
+        <v>0.004113849443451396</v>
+      </c>
+      <c r="H59">
+        <v>0.01803549974807334</v>
+      </c>
+      <c r="I59">
+        <v>-0.01807928922586522</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1817146030057164</v>
+        <v>0.1902376099252589</v>
       </c>
       <c r="C60">
-        <v>-0.07754590701793049</v>
+        <v>-0.05081011337961457</v>
       </c>
       <c r="D60">
-        <v>0.01485081253742377</v>
+        <v>0.05255435755313323</v>
       </c>
       <c r="E60">
-        <v>0.08112189592188376</v>
+        <v>0.01126714780721078</v>
       </c>
       <c r="F60">
-        <v>0.1813106642493031</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.2035047995665173</v>
+      </c>
+      <c r="G60">
+        <v>0.3166588631333205</v>
+      </c>
+      <c r="H60">
+        <v>0.04063065817734452</v>
+      </c>
+      <c r="I60">
+        <v>0.03230189412202374</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.04388875940003519</v>
+        <v>0.0392401944218103</v>
       </c>
       <c r="C61">
-        <v>0.01446321015738605</v>
+        <v>0.03185721541574424</v>
       </c>
       <c r="D61">
-        <v>0.0110845872122553</v>
+        <v>-0.002651822527188037</v>
       </c>
       <c r="E61">
-        <v>-0.002439840470809259</v>
+        <v>0.009873823455168892</v>
       </c>
       <c r="F61">
-        <v>0.03235887484164231</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03597081301295493</v>
+      </c>
+      <c r="G61">
+        <v>0.004732775094483713</v>
+      </c>
+      <c r="H61">
+        <v>0.01323212836027288</v>
+      </c>
+      <c r="I61">
+        <v>0.005372248364216327</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.04254166821640445</v>
+        <v>0.03143143237603707</v>
       </c>
       <c r="C63">
-        <v>0.01407044908309106</v>
+        <v>0.02386905915026755</v>
       </c>
       <c r="D63">
-        <v>0.02335119551095755</v>
+        <v>0.0009472965129862025</v>
       </c>
       <c r="E63">
-        <v>0.009262290413741716</v>
+        <v>0.01441899761849677</v>
       </c>
       <c r="F63">
-        <v>0.03303641475596449</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02764877447120174</v>
+      </c>
+      <c r="G63">
+        <v>-0.05151477921683797</v>
+      </c>
+      <c r="H63">
+        <v>0.001758558921605493</v>
+      </c>
+      <c r="I63">
+        <v>-0.03521277931311595</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.06427595862305478</v>
+        <v>0.05679526833332208</v>
       </c>
       <c r="C64">
-        <v>0.02560752430472828</v>
+        <v>0.03273786238323824</v>
       </c>
       <c r="D64">
-        <v>0.02300007962743848</v>
+        <v>-0.01190285066727205</v>
       </c>
       <c r="E64">
-        <v>-0.02746832494520849</v>
+        <v>0.02034593957330396</v>
       </c>
       <c r="F64">
-        <v>0.0329932634924152</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.03844216803170182</v>
+      </c>
+      <c r="G64">
+        <v>-0.03090842991265167</v>
+      </c>
+      <c r="H64">
+        <v>0.05427302396799724</v>
+      </c>
+      <c r="I64">
+        <v>-0.0357991184240755</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.02315955510416042</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.01003086469374163</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.005646524179226627</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.005997567954119899</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.005238737690063379</v>
+      </c>
+      <c r="G65">
+        <v>0.01939307804290567</v>
+      </c>
+      <c r="H65">
+        <v>-0.01640973943703711</v>
+      </c>
+      <c r="I65">
+        <v>0.004167051178711549</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.08021147137863463</v>
+        <v>0.06812096732310598</v>
       </c>
       <c r="C66">
-        <v>0.03224073979752264</v>
+        <v>0.05732702792529806</v>
       </c>
       <c r="D66">
-        <v>0.04823753440884833</v>
+        <v>0.0101149028077689</v>
       </c>
       <c r="E66">
-        <v>0.001956523132750538</v>
+        <v>0.0474276233835125</v>
       </c>
       <c r="F66">
-        <v>0.0725964938620547</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.0667453312924208</v>
+      </c>
+      <c r="G66">
+        <v>0.006023059413360662</v>
+      </c>
+      <c r="H66">
+        <v>0.01116781105483599</v>
+      </c>
+      <c r="I66">
+        <v>-0.04142032748980971</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.05546220288055687</v>
+        <v>0.047366597826342</v>
       </c>
       <c r="C67">
-        <v>-0.009102801593960021</v>
+        <v>-0.0007516327959236352</v>
       </c>
       <c r="D67">
-        <v>0.007684407683607137</v>
+        <v>0.00126755874834074</v>
       </c>
       <c r="E67">
-        <v>-0.007244495922581336</v>
+        <v>0.01007267124935227</v>
       </c>
       <c r="F67">
-        <v>0.01809827260360057</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.03591281626007291</v>
+      </c>
+      <c r="G67">
+        <v>-0.01133036910329539</v>
+      </c>
+      <c r="H67">
+        <v>0.03642544842124562</v>
+      </c>
+      <c r="I67">
+        <v>0.02431121024173874</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.03840454913529304</v>
+        <v>0.05959649346297845</v>
       </c>
       <c r="C68">
-        <v>-0.2288529575576306</v>
+        <v>-0.2365094325419832</v>
       </c>
       <c r="D68">
-        <v>-0.08158893510943625</v>
+        <v>0.02659498417542481</v>
       </c>
       <c r="E68">
-        <v>0.03588959177821122</v>
+        <v>-0.03754485371176434</v>
       </c>
       <c r="F68">
-        <v>0.04488537325119184</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.05098594172798996</v>
+      </c>
+      <c r="G68">
+        <v>-0.01810114107440908</v>
+      </c>
+      <c r="H68">
+        <v>-0.003517608005028254</v>
+      </c>
+      <c r="I68">
+        <v>-0.03920914415366304</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.08170039744052025</v>
+        <v>0.07317938782583792</v>
       </c>
       <c r="C69">
-        <v>0.004406680509372989</v>
+        <v>0.01997619319878822</v>
       </c>
       <c r="D69">
-        <v>0.02693937074461937</v>
+        <v>0.005127080628866323</v>
       </c>
       <c r="E69">
-        <v>3.739090479608373e-05</v>
+        <v>0.03110915680232377</v>
       </c>
       <c r="F69">
-        <v>-0.01915902784916163</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.004985295795780489</v>
+      </c>
+      <c r="G69">
+        <v>-0.03895387188831929</v>
+      </c>
+      <c r="H69">
+        <v>0.02009020636601281</v>
+      </c>
+      <c r="I69">
+        <v>-0.01681125758758022</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.03345546042973252</v>
+        <v>0.05458516110880168</v>
       </c>
       <c r="C71">
-        <v>-0.2733559876345464</v>
+        <v>-0.2578723534517294</v>
       </c>
       <c r="D71">
-        <v>-0.09591848306601951</v>
+        <v>0.03149814032272833</v>
       </c>
       <c r="E71">
-        <v>0.07957420037279618</v>
+        <v>-0.06464617959828131</v>
       </c>
       <c r="F71">
-        <v>0.07945726764182295</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.07145765870809571</v>
+      </c>
+      <c r="G71">
+        <v>-0.02563515755616427</v>
+      </c>
+      <c r="H71">
+        <v>0.02217554825320156</v>
+      </c>
+      <c r="I71">
+        <v>-0.04831809844118487</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1283894256191994</v>
+        <v>0.1244074206483209</v>
       </c>
       <c r="C72">
-        <v>-0.0276040087992976</v>
+        <v>0.03352584986375116</v>
       </c>
       <c r="D72">
-        <v>0.04886441225860549</v>
+        <v>0.00300089796402166</v>
       </c>
       <c r="E72">
-        <v>-8.637665994278793e-05</v>
+        <v>0.07031943355331759</v>
       </c>
       <c r="F72">
-        <v>0.06764909230778539</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.08112199765403424</v>
+      </c>
+      <c r="G72">
+        <v>0.03940257137355586</v>
+      </c>
+      <c r="H72">
+        <v>-0.03485151308849722</v>
+      </c>
+      <c r="I72">
+        <v>0.1214949329974823</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2761938634789012</v>
+        <v>0.2707580055749952</v>
       </c>
       <c r="C73">
-        <v>-0.1481019399154437</v>
+        <v>-0.07134419503548464</v>
       </c>
       <c r="D73">
-        <v>-0.04534617919592066</v>
+        <v>0.09086976472336965</v>
       </c>
       <c r="E73">
-        <v>0.1277207226873916</v>
+        <v>-0.03549945814010872</v>
       </c>
       <c r="F73">
-        <v>0.3442538221515525</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.3145617885624154</v>
+      </c>
+      <c r="G73">
+        <v>0.5336620575814912</v>
+      </c>
+      <c r="H73">
+        <v>-0.007189631485073281</v>
+      </c>
+      <c r="I73">
+        <v>0.1107792620281774</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1541780228505621</v>
+        <v>0.149763877891057</v>
       </c>
       <c r="C74">
-        <v>0.002734474414723322</v>
+        <v>0.03343412295875457</v>
       </c>
       <c r="D74">
-        <v>0.04603053881020356</v>
+        <v>0.01097162204162439</v>
       </c>
       <c r="E74">
-        <v>0.005595798769746195</v>
+        <v>0.0522356161061541</v>
       </c>
       <c r="F74">
-        <v>-0.04770655580054636</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.06529682546760208</v>
+      </c>
+      <c r="G74">
+        <v>0.0272428225520342</v>
+      </c>
+      <c r="H74">
+        <v>-0.006368610198653044</v>
+      </c>
+      <c r="I74">
+        <v>-0.07084919503567762</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2282960870015379</v>
+        <v>0.2461049711253835</v>
       </c>
       <c r="C75">
-        <v>-0.02643110426171671</v>
+        <v>0.02136627856011974</v>
       </c>
       <c r="D75">
-        <v>0.08319535373018982</v>
+        <v>0.02763992355709103</v>
       </c>
       <c r="E75">
-        <v>0.000839364673418</v>
+        <v>0.1160349604289218</v>
       </c>
       <c r="F75">
-        <v>-0.1454919954164352</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1461378979606767</v>
+      </c>
+      <c r="G75">
+        <v>0.01269169653011549</v>
+      </c>
+      <c r="H75">
+        <v>0.01368399196101758</v>
+      </c>
+      <c r="I75">
+        <v>-0.04636785157970365</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.2492710642449747</v>
+        <v>0.2637090147218902</v>
       </c>
       <c r="C76">
-        <v>-0.06317882211575321</v>
+        <v>0.007019033458679545</v>
       </c>
       <c r="D76">
-        <v>0.08430593682796952</v>
+        <v>-0.01286275597009985</v>
       </c>
       <c r="E76">
-        <v>-0.0686399111482158</v>
+        <v>0.1383828632544944</v>
       </c>
       <c r="F76">
-        <v>-0.1328884304212114</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1820470829251504</v>
+      </c>
+      <c r="G76">
+        <v>0.04080759708768743</v>
+      </c>
+      <c r="H76">
+        <v>-0.05677911795462931</v>
+      </c>
+      <c r="I76">
+        <v>-0.05637056259520263</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1375633019084027</v>
+        <v>0.1204280074965466</v>
       </c>
       <c r="C77">
-        <v>0.06263883049868099</v>
+        <v>0.07381505461308502</v>
       </c>
       <c r="D77">
-        <v>0.007323447627132294</v>
+        <v>0.004913264061126076</v>
       </c>
       <c r="E77">
-        <v>0.01785158919795814</v>
+        <v>-0.03398272238443954</v>
       </c>
       <c r="F77">
-        <v>0.1544478062097022</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.1582433998098535</v>
+      </c>
+      <c r="G77">
+        <v>-0.2070477453277606</v>
+      </c>
+      <c r="H77">
+        <v>-0.0403081176602928</v>
+      </c>
+      <c r="I77">
+        <v>-0.2442447574698876</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.09553198371488344</v>
+        <v>0.07240598569288587</v>
       </c>
       <c r="C78">
-        <v>0.07681250683797791</v>
+        <v>0.07666862647966949</v>
       </c>
       <c r="D78">
-        <v>0.00939117121487415</v>
+        <v>-0.007776813916342804</v>
       </c>
       <c r="E78">
-        <v>-0.005352877964996826</v>
+        <v>0.006640932870747431</v>
       </c>
       <c r="F78">
-        <v>0.0505004682430235</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.06696369277816788</v>
+      </c>
+      <c r="G78">
+        <v>-0.01871385250356479</v>
+      </c>
+      <c r="H78">
+        <v>0.01872717096346527</v>
+      </c>
+      <c r="I78">
+        <v>-0.04670103530667557</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.1023150286651481</v>
+        <v>0.1356887791199149</v>
       </c>
       <c r="C80">
-        <v>-0.004904525570868182</v>
+        <v>-0.08095506634486398</v>
       </c>
       <c r="D80">
-        <v>-0.315790902338032</v>
+        <v>-0.9728235374791061</v>
       </c>
       <c r="E80">
-        <v>-0.9132362751166435</v>
+        <v>-0.05867545449302464</v>
       </c>
       <c r="F80">
-        <v>0.1231188595017058</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.04582752627094921</v>
+      </c>
+      <c r="G80">
+        <v>0.02901398929190933</v>
+      </c>
+      <c r="H80">
+        <v>0.03892825606223282</v>
+      </c>
+      <c r="I80">
+        <v>0.09627090913888049</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1583601182148097</v>
+        <v>0.1809064456347663</v>
       </c>
       <c r="C81">
-        <v>-0.01841187450999092</v>
+        <v>0.00784366338508178</v>
       </c>
       <c r="D81">
-        <v>0.04793493975216188</v>
+        <v>0.006345693968976838</v>
       </c>
       <c r="E81">
-        <v>-0.01863507252151114</v>
+        <v>0.08702536303300627</v>
       </c>
       <c r="F81">
-        <v>-0.1773519088326586</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1592465151768933</v>
+      </c>
+      <c r="G81">
+        <v>-0.003432762476877033</v>
+      </c>
+      <c r="H81">
+        <v>-0.02728167003551967</v>
+      </c>
+      <c r="I81">
+        <v>-0.01540437497658981</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.09316414838122555</v>
+        <v>0.06901279583803024</v>
       </c>
       <c r="C83">
-        <v>0.08750501540554924</v>
+        <v>0.0559120299021011</v>
       </c>
       <c r="D83">
-        <v>-0.02650121848797126</v>
+        <v>0.01243665847538275</v>
       </c>
       <c r="E83">
-        <v>0.04406763360597136</v>
+        <v>-0.03583582925523164</v>
       </c>
       <c r="F83">
-        <v>0.01189072670851811</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.0455417907553679</v>
+      </c>
+      <c r="G83">
+        <v>-0.05293169148631896</v>
+      </c>
+      <c r="H83">
+        <v>0.06451400405414356</v>
+      </c>
+      <c r="I83">
+        <v>-0.04965850054142874</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.2373192898331354</v>
+        <v>0.2499948069486024</v>
       </c>
       <c r="C85">
-        <v>0.01139264619190512</v>
+        <v>0.04958479681777542</v>
       </c>
       <c r="D85">
-        <v>0.07179852206847429</v>
+        <v>0.005283556664574077</v>
       </c>
       <c r="E85">
-        <v>-0.06058823563852269</v>
+        <v>0.1110152127235261</v>
       </c>
       <c r="F85">
-        <v>-0.1540148300358962</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1832092910016312</v>
+      </c>
+      <c r="G85">
+        <v>-0.008339151640823829</v>
+      </c>
+      <c r="H85">
+        <v>-0.02283662929676588</v>
+      </c>
+      <c r="I85">
+        <v>-0.0735290303610866</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.04214884711012328</v>
+        <v>0.02823882549251606</v>
       </c>
       <c r="C86">
-        <v>0.04532185319233911</v>
+        <v>0.05366468050234212</v>
       </c>
       <c r="D86">
-        <v>0.0294587220716665</v>
+        <v>-0.0001824576476024542</v>
       </c>
       <c r="E86">
-        <v>0.009792334946202763</v>
+        <v>0.01568868342759511</v>
       </c>
       <c r="F86">
-        <v>0.06468938236036639</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.07877085930461178</v>
+      </c>
+      <c r="G86">
+        <v>-0.06425421338410547</v>
+      </c>
+      <c r="H86">
+        <v>0.003104716852679199</v>
+      </c>
+      <c r="I86">
+        <v>-0.05590516785475987</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01795645845482499</v>
+        <v>0.0277258242620102</v>
       </c>
       <c r="C87">
-        <v>-0.03655418230638049</v>
+        <v>-0.002921111506488124</v>
       </c>
       <c r="D87">
-        <v>-0.006159265071296848</v>
+        <v>-0.00431631404066856</v>
       </c>
       <c r="E87">
-        <v>0.007236281300401281</v>
+        <v>-0.0039551139295046</v>
       </c>
       <c r="F87">
-        <v>0.09241938505473581</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.09611412485837804</v>
+      </c>
+      <c r="G87">
+        <v>-0.02321469026129592</v>
+      </c>
+      <c r="H87">
+        <v>-0.01517673651144059</v>
+      </c>
+      <c r="I87">
+        <v>-0.0275453031218333</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.02986763893614614</v>
+        <v>0.03375254838448161</v>
       </c>
       <c r="C88">
-        <v>0.02193977668667789</v>
+        <v>0.009353031122495085</v>
       </c>
       <c r="D88">
-        <v>0.01101255310551569</v>
+        <v>-0.006100494922423595</v>
       </c>
       <c r="E88">
-        <v>-0.02192964464789827</v>
+        <v>0.004313175193780604</v>
       </c>
       <c r="F88">
-        <v>-0.0193118982692586</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01756282201212838</v>
+      </c>
+      <c r="G88">
+        <v>-0.02739374979338638</v>
+      </c>
+      <c r="H88">
+        <v>0.0443276846284315</v>
+      </c>
+      <c r="I88">
+        <v>-0.005944463932269899</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.03805145693991265</v>
+        <v>0.0855461874434628</v>
       </c>
       <c r="C89">
-        <v>-0.3490433551605516</v>
+        <v>-0.3880704346826601</v>
       </c>
       <c r="D89">
-        <v>-0.167334674244739</v>
+        <v>0.06060922379807115</v>
       </c>
       <c r="E89">
-        <v>0.08495244594117543</v>
+        <v>-0.07359508646900677</v>
       </c>
       <c r="F89">
-        <v>0.004704005230759893</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.03575663890240979</v>
+      </c>
+      <c r="G89">
+        <v>-0.1056735547041303</v>
+      </c>
+      <c r="H89">
+        <v>0.03859215939920117</v>
+      </c>
+      <c r="I89">
+        <v>-0.08997796274580951</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.02947212573965548</v>
+        <v>0.05487910648572501</v>
       </c>
       <c r="C90">
-        <v>-0.2896877033417795</v>
+        <v>-0.3286926829358393</v>
       </c>
       <c r="D90">
-        <v>-0.1363625691080128</v>
+        <v>0.03397386641855808</v>
       </c>
       <c r="E90">
-        <v>0.02825958089207287</v>
+        <v>-0.06720241548259794</v>
       </c>
       <c r="F90">
-        <v>0.0678244442330595</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.04111010257585952</v>
+      </c>
+      <c r="G90">
+        <v>-0.05233568920605059</v>
+      </c>
+      <c r="H90">
+        <v>0.01171656457788452</v>
+      </c>
+      <c r="I90">
+        <v>-0.0665041239060018</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2725639579729596</v>
+        <v>0.2887545129017182</v>
       </c>
       <c r="C91">
-        <v>0.01176553879758426</v>
+        <v>0.05101244515423939</v>
       </c>
       <c r="D91">
-        <v>0.0771006760725137</v>
+        <v>0.0143352240441468</v>
       </c>
       <c r="E91">
-        <v>-0.05088305356476265</v>
+        <v>0.1074127471738566</v>
       </c>
       <c r="F91">
-        <v>-0.271418299931074</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.2706592919073299</v>
+      </c>
+      <c r="G91">
+        <v>0.01253245519029527</v>
+      </c>
+      <c r="H91">
+        <v>-0.0470939535795778</v>
+      </c>
+      <c r="I91">
+        <v>-0.06191364094308602</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.06112516185324835</v>
+        <v>0.1222324510090493</v>
       </c>
       <c r="C92">
-        <v>-0.3156111289714131</v>
+        <v>-0.3810796300013079</v>
       </c>
       <c r="D92">
-        <v>-0.2167026380611616</v>
+        <v>0.02256849321778694</v>
       </c>
       <c r="E92">
-        <v>0.009510095015721374</v>
+        <v>-0.09133190287244689</v>
       </c>
       <c r="F92">
-        <v>-0.1159318474818489</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1209412196800089</v>
+      </c>
+      <c r="G92">
+        <v>-0.3209378978271291</v>
+      </c>
+      <c r="H92">
+        <v>-0.06479294945544908</v>
+      </c>
+      <c r="I92">
+        <v>0.1145921831699843</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.02499556628342517</v>
+        <v>0.071096393513259</v>
       </c>
       <c r="C93">
-        <v>-0.3464354112642196</v>
+        <v>-0.3979937716497065</v>
       </c>
       <c r="D93">
-        <v>-0.1792728715041643</v>
+        <v>0.05339657778303611</v>
       </c>
       <c r="E93">
-        <v>0.04572896752490418</v>
+        <v>-0.1081247319268272</v>
       </c>
       <c r="F93">
-        <v>-0.008767260717388963</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.003340314485549397</v>
+      </c>
+      <c r="G93">
+        <v>-0.02812588820970345</v>
+      </c>
+      <c r="H93">
+        <v>0.0521302252987291</v>
+      </c>
+      <c r="I93">
+        <v>-0.00342981447108183</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2816683927133597</v>
+        <v>0.3114658153391225</v>
       </c>
       <c r="C94">
-        <v>-0.1183629144134065</v>
+        <v>-0.04253523286078661</v>
       </c>
       <c r="D94">
-        <v>0.009533311672786338</v>
+        <v>0.04400661117223135</v>
       </c>
       <c r="E94">
-        <v>-0.02503312303332849</v>
+        <v>0.1188108247031935</v>
       </c>
       <c r="F94">
-        <v>-0.3432422733382365</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.3133301437105324</v>
+      </c>
+      <c r="G94">
+        <v>-0.0424813232071645</v>
+      </c>
+      <c r="H94">
+        <v>-0.2200429041793732</v>
+      </c>
+      <c r="I94">
+        <v>-0.01436450631899626</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1635619284618321</v>
+        <v>0.1312861313394138</v>
       </c>
       <c r="C95">
-        <v>0.04134323532804439</v>
+        <v>0.05476089685948211</v>
       </c>
       <c r="D95">
-        <v>0.04437314171360445</v>
+        <v>0.08285455746854713</v>
       </c>
       <c r="E95">
-        <v>0.04616451718052681</v>
+        <v>0.03070029059862083</v>
       </c>
       <c r="F95">
-        <v>-0.3725175150277659</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.1112695631990955</v>
+      </c>
+      <c r="G95">
+        <v>-0.1420739535873116</v>
+      </c>
+      <c r="H95">
+        <v>0.862304588853634</v>
+      </c>
+      <c r="I95">
+        <v>0.3564033386548874</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2090443335539428</v>
+        <v>0.2099447571756301</v>
       </c>
       <c r="C98">
-        <v>-0.08886389749921615</v>
+        <v>-0.06315441758545468</v>
       </c>
       <c r="D98">
-        <v>-0.02557800466128908</v>
+        <v>0.06504211724628887</v>
       </c>
       <c r="E98">
-        <v>0.0907608508619195</v>
+        <v>-0.02484256374326538</v>
       </c>
       <c r="F98">
-        <v>0.08770261892191258</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.1706375887551575</v>
+      </c>
+      <c r="G98">
+        <v>0.3441696079297843</v>
+      </c>
+      <c r="H98">
+        <v>0.02963384394959815</v>
+      </c>
+      <c r="I98">
+        <v>0.111584433608416</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.03159998121521118</v>
+        <v>0.01782240161105767</v>
       </c>
       <c r="C101">
-        <v>0.01883657520044213</v>
+        <v>0.03069590605645844</v>
       </c>
       <c r="D101">
-        <v>0.03495041016937125</v>
+        <v>-0.006230052112306748</v>
       </c>
       <c r="E101">
-        <v>-0.01590911372057511</v>
+        <v>0.03583696107089283</v>
       </c>
       <c r="F101">
-        <v>0.02392727097609162</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.06261681416515208</v>
+      </c>
+      <c r="G101">
+        <v>-0.1108176576354779</v>
+      </c>
+      <c r="H101">
+        <v>-0.03157789709305345</v>
+      </c>
+      <c r="I101">
+        <v>0.1158658091639662</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1032371576185619</v>
+        <v>0.1176548170208898</v>
       </c>
       <c r="C102">
-        <v>0.01601980577218925</v>
+        <v>0.02617891562295526</v>
       </c>
       <c r="D102">
-        <v>0.04781811238861886</v>
+        <v>-0.005884577275188636</v>
       </c>
       <c r="E102">
-        <v>-0.04481330962437976</v>
+        <v>0.05421442492309057</v>
       </c>
       <c r="F102">
-        <v>-0.09726301897140567</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.1153281787255809</v>
+      </c>
+      <c r="G102">
+        <v>1.765862859463825e-05</v>
+      </c>
+      <c r="H102">
+        <v>-0.002527907677676461</v>
+      </c>
+      <c r="I102">
+        <v>-0.05593641929959672</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.01964425539964281</v>
+        <v>0.0285098123037937</v>
       </c>
       <c r="C103">
-        <v>0.006567411656076545</v>
+        <v>0.007951388482963791</v>
       </c>
       <c r="D103">
-        <v>0.01419715729169167</v>
+        <v>-0.009292745025954053</v>
       </c>
       <c r="E103">
-        <v>-0.00635985761329531</v>
+        <v>0.01811693617751845</v>
       </c>
       <c r="F103">
-        <v>-0.03692065792896896</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.02703145614187243</v>
+      </c>
+      <c r="G103">
+        <v>-0.01957024294835892</v>
+      </c>
+      <c r="H103">
+        <v>0.007393385181174801</v>
+      </c>
+      <c r="I103">
+        <v>-0.01321258549687351</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
